--- a/medicine/Handicap/Adaptation_scolaire_et_scolarisation_des_élèves_handicapés/Adaptation_scolaire_et_scolarisation_des_élèves_handicapés.xlsx
+++ b/medicine/Handicap/Adaptation_scolaire_et_scolarisation_des_élèves_handicapés/Adaptation_scolaire_et_scolarisation_des_élèves_handicapés.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Adaptation_scolaire_et_scolarisation_des_%C3%A9l%C3%A8ves_handicap%C3%A9s</t>
+          <t>Adaptation_scolaire_et_scolarisation_des_élèves_handicapés</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'adaptation scolaire et la scolarisation des élèves en situation de handicap (ASH) est un programme du système éducatif français[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'adaptation scolaire et la scolarisation des élèves en situation de handicap (ASH) est un programme du système éducatif français.
 En fonction du handicap, mais surtout de la (ou des) situation(s) de handicap rencontrée par l'élève, son intégration scolaire peut nécessiter une aide humaine ou matérielle. 
 L'aide humaine consiste en un accompagnement de l'élève, sur du temps scolaire, dans la classe ou dans l'établissement (lors des changements de classes), ainsi que sur du temps péri-scolaire (cantine, récréation, étude, garderie) par une AESH (accompagnante d'élèves en situation de handicap), anciennement AVS (auxiliaire de vie scolaire). C'est une personne s'occupant de l'accompagnement, de la socialisation, de la sécurité et de la scolarisation d'enfants en situation de handicap ou présentant un trouble de santé invalidant. Son travail s'effectue dans la classe en collaboration avec l'enseignant.
 L'aide matérielle consiste en la fourniture de matériel informatique (ordinateur et des logiciels utiles à l'élève, scanner, liseuse...), de matériel pédagogique, de mobilier adapté...
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Adaptation_scolaire_et_scolarisation_des_%C3%A9l%C3%A8ves_handicap%C3%A9s</t>
+          <t>Adaptation_scolaire_et_scolarisation_des_élèves_handicapés</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,21 +526,11 @@
           <t>Adaptation scolaire en classe ordinaire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tout enfant a le droit à une scolarisation en milieu ordinaire[réf. souhaitée]. Dans le cas d'un handicap, la scolarisation en milieu ordinaire est possible grâce à des moyens matériels ou humains qui facilitent l'intégration de l'élève.
-P.A.I : Projet d'Accueil Individualisé
-Le P.A.I est mis en place pour les enfants atteints de troubles de la santé comme des allergies ou encore des pathologies chroniques tel que l'asthme. Celui-ci leur permet de suivre une scolarité ordinaire. Pour qu'un élève puisse bénéficier d'un P.A.I., la famille ou le chef d'établissement doit en faire la demande en concertation avec le médecin scolaire qui est chargé de sa rédaction[2].
-P.A.P: Plan d'Accompagnement personnalisé
-Le P.A.P concerne les élèves présentant des troubles des apprentissages. Ce plan permet de mettre en place des adaptations et des aides pédagogiques. Ainsi, un élève peut avoir la possibilité d'utiliser son ordinateur personnel pendant les cours. Le P.A.P doit être réévalué tous les ans afin de mettre de nouveaux aménagements en place si cela s'avère nécessaire. Pour ce faire, la famille doit être en accord avec l'équipe éducative qui est chargée de son élaboration[3].
-P.P.R.E: Programme Personnalisé de Réussite Éducative
-Le P.P.R.E touche les élèves qui risquent de ne pas posséder les compétences et les connaissances du socle commun. Ce programme est conseillé par l'équipe pédagogique et ne peut être réalisé que si les parents et l'enfant acceptent[4]. Les difficultés sont généralement  repérées lors des évaluations du CE1 au CM2. Il concerne principalement les mathématiques  et le français. Le PPRE a une durée indéfinie, il peut être modifiable selon les compétences, acquises ou non, par l'élève. Ce programme est essentiel pour les élèves redoublants ou pour un éventuel redoublement[5].
-P.P.S: Projet Personnalisé de Scolarisation
-Le PPS concerne les élèves présentant un handicap défini par la loi du 11 février 2005, à savoir
-"Toute limitation d'activité ou restriction de participation à la vie en société subie dans son environnement par une personne en raison d'une altération substantielle, durable ou définitive d'une ou plusieurs fonctions physiques, sensorielles, mentales, cognitives, psychiques, d'un polyhandicap ou d'un trouble de santé invalidant [6]".
-La demande de mise en place du PPS doit être effectuée auprès de la MDPH (Maison Départementale des Personnes Handicapées). Si le PPS est accordé par la CDAPH (Commission des Droits et de l'Autonomie des Personnes Handicapées), "l'équipe éducative (enseignant, enseignant référent, personnels médicaux et sociaux, AESH) en lien avec l'élève handicapé et ses parents" peut avoir recours au GEVA-Sco afin d'évaluer les compétences et les besoins de l'élève[7]. 
-Grâce au PPS, les élèves concernés peuvent bénéficier d'aides matérielles, pédagogiques et humaines.
-L'enseignant référent joue un rôle primordial dans le bon fonctionnement du PPS. En effet, il est le noyau entre les différents protagonistes[8].
 </t>
         </is>
       </c>
@@ -539,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Adaptation_scolaire_et_scolarisation_des_%C3%A9l%C3%A8ves_handicap%C3%A9s</t>
+          <t>Adaptation_scolaire_et_scolarisation_des_élèves_handicapés</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -554,55 +556,281 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Adaptation scolaire en classe ordinaire</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>P.A.I : Projet d'Accueil Individualisé</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le P.A.I est mis en place pour les enfants atteints de troubles de la santé comme des allergies ou encore des pathologies chroniques tel que l'asthme. Celui-ci leur permet de suivre une scolarité ordinaire. Pour qu'un élève puisse bénéficier d'un P.A.I., la famille ou le chef d'établissement doit en faire la demande en concertation avec le médecin scolaire qui est chargé de sa rédaction.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Adaptation_scolaire_et_scolarisation_des_élèves_handicapés</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adaptation_scolaire_et_scolarisation_des_%C3%A9l%C3%A8ves_handicap%C3%A9s</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Adaptation scolaire en classe ordinaire</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>P.A.P: Plan d'Accompagnement personnalisé</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le P.A.P concerne les élèves présentant des troubles des apprentissages. Ce plan permet de mettre en place des adaptations et des aides pédagogiques. Ainsi, un élève peut avoir la possibilité d'utiliser son ordinateur personnel pendant les cours. Le P.A.P doit être réévalué tous les ans afin de mettre de nouveaux aménagements en place si cela s'avère nécessaire. Pour ce faire, la famille doit être en accord avec l'équipe éducative qui est chargée de son élaboration.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Adaptation_scolaire_et_scolarisation_des_élèves_handicapés</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adaptation_scolaire_et_scolarisation_des_%C3%A9l%C3%A8ves_handicap%C3%A9s</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Adaptation scolaire en classe ordinaire</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>P.P.R.E: Programme Personnalisé de Réussite Éducative</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le P.P.R.E touche les élèves qui risquent de ne pas posséder les compétences et les connaissances du socle commun. Ce programme est conseillé par l'équipe pédagogique et ne peut être réalisé que si les parents et l'enfant acceptent. Les difficultés sont généralement  repérées lors des évaluations du CE1 au CM2. Il concerne principalement les mathématiques  et le français. Le PPRE a une durée indéfinie, il peut être modifiable selon les compétences, acquises ou non, par l'élève. Ce programme est essentiel pour les élèves redoublants ou pour un éventuel redoublement.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Adaptation_scolaire_et_scolarisation_des_élèves_handicapés</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adaptation_scolaire_et_scolarisation_des_%C3%A9l%C3%A8ves_handicap%C3%A9s</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Adaptation scolaire en classe ordinaire</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>P.P.S: Projet Personnalisé de Scolarisation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le PPS concerne les élèves présentant un handicap défini par la loi du 11 février 2005, à savoir
+"Toute limitation d'activité ou restriction de participation à la vie en société subie dans son environnement par une personne en raison d'une altération substantielle, durable ou définitive d'une ou plusieurs fonctions physiques, sensorielles, mentales, cognitives, psychiques, d'un polyhandicap ou d'un trouble de santé invalidant ".
+La demande de mise en place du PPS doit être effectuée auprès de la MDPH (Maison Départementale des Personnes Handicapées). Si le PPS est accordé par la CDAPH (Commission des Droits et de l'Autonomie des Personnes Handicapées), "l'équipe éducative (enseignant, enseignant référent, personnels médicaux et sociaux, AESH) en lien avec l'élève handicapé et ses parents" peut avoir recours au GEVA-Sco afin d'évaluer les compétences et les besoins de l'élève. 
+Grâce au PPS, les élèves concernés peuvent bénéficier d'aides matérielles, pédagogiques et humaines.
+L'enseignant référent joue un rôle primordial dans le bon fonctionnement du PPS. En effet, il est le noyau entre les différents protagonistes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Adaptation_scolaire_et_scolarisation_des_élèves_handicapés</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adaptation_scolaire_et_scolarisation_des_%C3%A9l%C3%A8ves_handicap%C3%A9s</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Scolarisation avec appui de dispositifs spécialisées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Des ULIS, unités localisées pour l'inclusion scolaire, existent en école, collège et lycée.
-ULIS école
-Il existe quatre catégories d'ULIS selon le handicap qu'elle accueille :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Adaptation_scolaire_et_scolarisation_des_élèves_handicapés</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adaptation_scolaire_et_scolarisation_des_%C3%A9l%C3%A8ves_handicap%C3%A9s</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Scolarisation avec appui de dispositifs spécialisées</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>ULIS école</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe quatre catégories d'ULIS selon le handicap qu'elle accueille :
 - ULIS 1 : troubles des fonctions cognitives ou mentales.
 - ULIS 2 : troubles de la fonction auditive.
 - ULIS 3 : troubles de la fonction visuelle.
 - ULIS 4 : handicap moteur.
 Il peut exister également des ULIS pour les troubles envahissant du développement ou l'autisme.
-L'orientation d'un élève vers une ULIS est réalisée seulement si l'élève n'a plus les capacités nécessaires pour suivre les cours en classe ordinaire malgré des mesures de compensation et des aides apportées. La famille doit saisir la CDAPH pour que l'enfant puisse entrer dans cette classe. La mise en place d'un PPS est obligatoire pour tout élève d'ULIS. Si l'élève a les capacités qui lui permettent de suivre certains cours en inclusion scolaire dans les autres classe, son emploi du temps est aménagé afin d'alterner les cours en Ulis et ceux en classe ordinaire. Pouvoir intégrer une autre classe, permet à l'élève d'effectuer des apprentissages au même rythme que les autres élèves. Chaque ULIS doit avoir un projet pédagogique spécifique qui doit être intégré au projet de l'établissement[9].
-Les cours sont menés par un enseignant spécialisé. Il adapte son enseignement en fonction de chaque élève et de leurs compétences. L'enseignant doit ainsi tenir compte du PPS de chacun d'eux. Les cours ne sont pas organisés comme dans les classes ordinaires, les méthodes et les supports sont différents. L'enseignant passe le plus souvent par la pratique, les jeux et l'audiovisuel. Cela permet de capter l'attention des enfants et leur donner envie de découvrir de nouvelles choses. L'ULIS permet aux enfants  de progresser et d'apprendre les fondamentaux à leur rythme[10].
-ULIS collège
-Le plus souvent, les élèves issus d'ULIS école poursuivent leur scolarité en ULIS collège. Pour les autres ayant débuté leur scolarisation en classe ordinaire, la demande de réorientation en ULIS doit être faite par les parents, ce qui amène à une réunion de l'équipe éducative puis à une réunion de l'équipe de suivi. La demande doit ensuite passer par l'équipe pluridisciplinaire avant que la demande soit acceptée par la CDAPH. En plus d'un PPS , un PPO (projet personnalisé d'orientation) est mis en place pour favoriser son insertion professionnelle. Elle accueille les adolescents de 11 à 16 ans pour une durée maximum de 4 ans. De plus, le nombre d'élèves autorisés ne doit pas dépasser 10[11].
-Les collégiens possèdent un LPC (Livret Personnel de Compétences) où sont indiquées les compétences et les connaissances qu'il devront acquérir à la fin de leur scolarité. Ils auront l'occasion d'effectuer des stages en entreprise ou en IME (institut médico-éducatif). Les élèves ont également la possibilité de passer les épreuves du Diplôme national du brevet ou le certificat de formation générale[12].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Adaptation_scolaire_et_scolarisation_des_%C3%A9l%C3%A8ves_handicap%C3%A9s</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Handicap/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Adaptation_scolaire_et_scolarisation_des_%C3%A9l%C3%A8ves_handicap%C3%A9s</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+L'orientation d'un élève vers une ULIS est réalisée seulement si l'élève n'a plus les capacités nécessaires pour suivre les cours en classe ordinaire malgré des mesures de compensation et des aides apportées. La famille doit saisir la CDAPH pour que l'enfant puisse entrer dans cette classe. La mise en place d'un PPS est obligatoire pour tout élève d'ULIS. Si l'élève a les capacités qui lui permettent de suivre certains cours en inclusion scolaire dans les autres classe, son emploi du temps est aménagé afin d'alterner les cours en Ulis et ceux en classe ordinaire. Pouvoir intégrer une autre classe, permet à l'élève d'effectuer des apprentissages au même rythme que les autres élèves. Chaque ULIS doit avoir un projet pédagogique spécifique qui doit être intégré au projet de l'établissement.
+Les cours sont menés par un enseignant spécialisé. Il adapte son enseignement en fonction de chaque élève et de leurs compétences. L'enseignant doit ainsi tenir compte du PPS de chacun d'eux. Les cours ne sont pas organisés comme dans les classes ordinaires, les méthodes et les supports sont différents. L'enseignant passe le plus souvent par la pratique, les jeux et l'audiovisuel. Cela permet de capter l'attention des enfants et leur donner envie de découvrir de nouvelles choses. L'ULIS permet aux enfants  de progresser et d'apprendre les fondamentaux à leur rythme.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Adaptation_scolaire_et_scolarisation_des_élèves_handicapés</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adaptation_scolaire_et_scolarisation_des_%C3%A9l%C3%A8ves_handicap%C3%A9s</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Scolarisation avec appui de dispositifs spécialisées</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>ULIS collège</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le plus souvent, les élèves issus d'ULIS école poursuivent leur scolarité en ULIS collège. Pour les autres ayant débuté leur scolarisation en classe ordinaire, la demande de réorientation en ULIS doit être faite par les parents, ce qui amène à une réunion de l'équipe éducative puis à une réunion de l'équipe de suivi. La demande doit ensuite passer par l'équipe pluridisciplinaire avant que la demande soit acceptée par la CDAPH. En plus d'un PPS , un PPO (projet personnalisé d'orientation) est mis en place pour favoriser son insertion professionnelle. Elle accueille les adolescents de 11 à 16 ans pour une durée maximum de 4 ans. De plus, le nombre d'élèves autorisés ne doit pas dépasser 10.
+Les collégiens possèdent un LPC (Livret Personnel de Compétences) où sont indiquées les compétences et les connaissances qu'il devront acquérir à la fin de leur scolarité. Ils auront l'occasion d'effectuer des stages en entreprise ou en IME (institut médico-éducatif). Les élèves ont également la possibilité de passer les épreuves du Diplôme national du brevet ou le certificat de formation générale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Adaptation_scolaire_et_scolarisation_des_élèves_handicapés</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Handicap/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adaptation_scolaire_et_scolarisation_des_%C3%A9l%C3%A8ves_handicap%C3%A9s</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Depuis la rentrée scolaire 2006[13], l'ASH remplace l'AIS (adaptation et intégration scolaire), les dispositifs créés sont dorénavant dissociés de ceux existants concernant la grande difficulté scolaire (ne relevant pas nécessairement d'une situation de handicap). Il s'agissait de structures de l'Éducation nationale française qui accueillaient des enfants en grande difficulté scolaire ou en situation de handicap. De telles classes spécialisées sont :[pas clair]
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis la rentrée scolaire 2006, l'ASH remplace l'AIS (adaptation et intégration scolaire), les dispositifs créés sont dorénavant dissociés de ceux existants concernant la grande difficulté scolaire (ne relevant pas nécessairement d'une situation de handicap). Il s'agissait de structures de l'Éducation nationale française qui accueillaient des enfants en grande difficulté scolaire ou en situation de handicap. De telles classes spécialisées sont :[pas clair]
 en primaire : Ulis école depuis janvier 2016 anciennement dénommé CLIS, Classe pour l'Inclusion Scolaire ;
 dans le secondaire : SEGPA : section enseignement général et professionnel adapté
 EREA, établissement régional d'enseignement adapté ;
